--- a/biology/Microbiologie/Cyclospora/Cyclospora.xlsx
+++ b/biology/Microbiologie/Cyclospora/Cyclospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclospora est un genre de parasites de la famille des Eimeriidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 mars 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 mars 2019) :
 Cyclospora cayetanensis
-Selon NCBI  (1 mars 2019)[3] :
+Selon NCBI  (1 mars 2019) :
 Cyclospora cayetanensis Ortega, Gilman &amp; Sterling, 1994
 Cyclospora cercopitheci
 Cyclospora colobi
@@ -548,7 +562,9 @@
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans La marche dans le ciel : 5 000 km à pied à travers l'Himalaya de Sylvain Tesson et Alexandre Poussin (1998), ce dernier décrit être très diminué pendant plusieurs semaines par ce qui se révèlera être un « parasite végétal », le cyclospora.</t>
         </is>
